--- a/Midterm_Group 7_Dashboard.xlsx
+++ b/Midterm_Group 7_Dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/eaeb90422aa58458/Desktop/Elective 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannah\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{D37D7600-4584-4174-9672-34A09524702D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1BFA5C7-8A11-4216-82C3-879E99C88471}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6599EB-E1F4-40BF-9F07-A9737C277B6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="621" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="621" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Disney Movies" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,6 @@
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId7"/>
   </pivotCaches>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
       <x14:slicerCaches>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="889" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="318">
   <si>
     <t>Musical</t>
   </si>
@@ -984,21 +983,6 @@
   </si>
   <si>
     <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
   </si>
   <si>
     <t>Sum of INFLATION ADJUSTED GROSS</t>
@@ -1170,7 +1154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1348,6 +1332,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1622,7 +1612,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1665,6 +1655,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -2268,9 +2260,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'PER YEAR'!$A$4:$A$23</c:f>
+              <c:f>'PER YEAR'!$A$4:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1986</c:v>
                 </c:pt>
@@ -2312,31 +2304,16 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PER YEAR'!$B$4:$B$23</c:f>
+              <c:f>'PER YEAR'!$B$4:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>18564613</c:v>
                 </c:pt>
@@ -2378,21 +2355,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1103207068</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1452972057</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1821352070</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1514179473</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2495662696</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2873393105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2444,9 +2406,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'PER YEAR'!$A$4:$A$23</c:f>
+              <c:f>'PER YEAR'!$A$4:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1986</c:v>
                 </c:pt>
@@ -2488,31 +2450,16 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PER YEAR'!$C$4:$C$23</c:f>
+              <c:f>'PER YEAR'!$C$4:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>42183197</c:v>
                 </c:pt>
@@ -2554,21 +2501,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1172578942</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1537669134</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1887863558</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1560791318</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2495662696</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2873393105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5362,9 +5294,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'PER YEAR'!$A$4:$A$23</c:f>
+              <c:f>'PER YEAR'!$A$4:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1986</c:v>
                 </c:pt>
@@ -5406,31 +5338,16 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PER YEAR'!$B$4:$B$23</c:f>
+              <c:f>'PER YEAR'!$B$4:$B$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>18564613</c:v>
                 </c:pt>
@@ -5472,21 +5389,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1103207068</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1452972057</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1821352070</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1514179473</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2495662696</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2873393105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5538,9 +5440,9 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'PER YEAR'!$A$4:$A$23</c:f>
+              <c:f>'PER YEAR'!$A$4:$A$18</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>1986</c:v>
                 </c:pt>
@@ -5582,31 +5484,16 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>2011</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2013</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2015</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2016</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'PER YEAR'!$C$4:$C$23</c:f>
+              <c:f>'PER YEAR'!$C$4:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>42183197</c:v>
                 </c:pt>
@@ -5648,21 +5535,6 @@
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>1172578942</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1537669134</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1887863558</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1560791318</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2495662696</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2873393105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -13278,18 +13150,188 @@
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>65314</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>71459</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E167B4DE-D72B-4512-B5AE-87D08BE84DE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="3175556" y="-3175556"/>
+          <a:ext cx="8954202" cy="15305314"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>600622</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>184588</xdr:rowOff>
+      <xdr:colOff>401503</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57227</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>208018</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>493311</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>164224</xdr:rowOff>
+      <xdr:rowOff>121492</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D384EEFC-1732-4353-8AD1-F16020BFC708}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="401503" y="235027"/>
+          <a:ext cx="5578208" cy="3442465"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>429043</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>511671</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23AE6EA1-7DBF-4A30-BD9D-E30250C0F580}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="429043" y="3937153"/>
+          <a:ext cx="5569028" cy="4279747"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>566757</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2142</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>364782</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>2142</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13297,44 +13339,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F6EB997-9D7D-4F4F-9904-5BB8472FD91D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>601350</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>18972</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>186997</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>108252</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0210A7AF-A1A9-4C84-92CB-CECF14713ED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13356,23 +13360,83 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1399</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>169702</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266241</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>91807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>176853</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>81472</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>64265</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>156072</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D42CC87-3E01-4D86-865D-3CE75C8665EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8749229" y="275421"/>
+          <a:ext cx="5857301" cy="3552940"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>548395</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>102976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>414066</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>120726</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A62A44D-C263-46F8-97E1-2E6C68CF64E0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0210A7AF-A1A9-4C84-92CB-CECF14713ED3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13394,16 +13458,114 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>606776</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>169333</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>275422</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>183443</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>98777</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>27542</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>119349</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D797EB67-A078-405A-BF5F-A07FF82525AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8809822" y="4114800"/>
+          <a:ext cx="5848120" cy="4332120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>377809</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>18361</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>553263</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>55084</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A62A44D-C263-46F8-97E1-2E6C68CF64E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>358897</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>130628</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>541492</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>36721</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13424,27 +13586,101 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle: Rounded Corners 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C93744-0530-4917-9B06-A4943453448A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6235700" y="165100"/>
+          <a:ext cx="2324100" cy="8216900"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:schemeClr val="accent4">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19212</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>42020</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>309629</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>27178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>587375</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>166688</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>141230</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="12" name="GENRE">
@@ -13467,7 +13703,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13477,8 +13713,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6663480" y="4874215"/>
-              <a:ext cx="2984261" cy="2354912"/>
+              <a:off x="6405629" y="2617978"/>
+              <a:ext cx="1950971" cy="1409452"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13497,7 +13733,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-PH" sz="1100"/>
                 <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
 If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
               </a:r>
@@ -13510,19 +13746,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>6351</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>1587</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>311611</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>8014</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>604398</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>455823</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>52331</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="13" name="Years (RELEASE DATE)">
@@ -13545,7 +13781,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13555,8 +13791,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6650618" y="745002"/>
-              <a:ext cx="1807311" cy="2566909"/>
+              <a:off x="6407611" y="378128"/>
+              <a:ext cx="1973012" cy="2079946"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13575,7 +13811,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-PH" sz="1100"/>
                 <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
 If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
               </a:r>
@@ -13588,19 +13824,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>176213</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296901</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>109807</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>63501</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>3673</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="15" name="GENRE 1">
@@ -13623,7 +13859,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13633,8 +13869,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6658555" y="9283042"/>
-              <a:ext cx="3005835" cy="2303386"/>
+              <a:off x="6392901" y="4181064"/>
+              <a:ext cx="1976399" cy="2114552"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13653,7 +13889,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-PH" sz="1100"/>
                 <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
 If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
               </a:r>
@@ -13666,19 +13902,19 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>14285</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>72203</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>306079</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>174569</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>611186</xdr:colOff>
-      <xdr:row>85</xdr:row>
-      <xdr:rowOff>43246</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>129908</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="16" name="GENRE 2">
@@ -13701,7 +13937,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -13711,8 +13947,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6658553" y="13453666"/>
-              <a:ext cx="3012999" cy="2387141"/>
+              <a:off x="6402079" y="6466512"/>
+              <a:ext cx="1954521" cy="1990967"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -13731,7 +13967,7 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
+                <a:rPr lang="en-PH" sz="1100"/>
                 <a:t>This shape represents a slicer. Slicers are supported in Excel 2010 or later.
 If the shape was modified in an earlier version of Excel, or if the workbook was saved in Excel 2003 or earlier, the slicer cannot be used.</a:t>
               </a:r>
@@ -17166,8 +17402,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4170A028-18A5-4196-975A-E03A71E9F289}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Release Date">
-  <location ref="A3:C23" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{4170A028-18A5-4196-975A-E03A71E9F289}" name="PivotTable10" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Release Date">
+  <location ref="A3:C18" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
       <items count="275">
@@ -18058,20 +18294,20 @@
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
       <items count="34">
-        <item sd="0" x="0"/>
+        <item h="1" sd="0" x="0"/>
         <item sd="0" x="1"/>
-        <item sd="0" x="2"/>
-        <item sd="0" x="3"/>
-        <item sd="0" x="4"/>
-        <item sd="0" x="5"/>
-        <item sd="0" x="6"/>
-        <item sd="0" x="7"/>
-        <item sd="0" x="8"/>
-        <item sd="0" x="9"/>
-        <item sd="0" x="10"/>
-        <item sd="0" x="11"/>
-        <item sd="0" x="12"/>
-        <item sd="0" x="13"/>
+        <item h="1" sd="0" x="2"/>
+        <item h="1" sd="0" x="3"/>
+        <item h="1" sd="0" x="4"/>
+        <item h="1" sd="0" x="5"/>
+        <item h="1" sd="0" x="6"/>
+        <item h="1" sd="0" x="7"/>
+        <item h="1" sd="0" x="8"/>
+        <item h="1" sd="0" x="9"/>
+        <item h="1" sd="0" x="10"/>
+        <item h="1" sd="0" x="11"/>
+        <item h="1" sd="0" x="12"/>
+        <item h="1" sd="0" x="13"/>
         <item sd="0" x="14"/>
         <item sd="0" x="15"/>
         <item sd="0" x="16"/>
@@ -18085,12 +18321,12 @@
         <item sd="0" x="24"/>
         <item sd="0" x="25"/>
         <item sd="0" x="26"/>
-        <item sd="0" x="27"/>
-        <item sd="0" x="28"/>
-        <item sd="0" x="29"/>
-        <item sd="0" x="30"/>
-        <item sd="0" x="31"/>
-        <item sd="0" x="32"/>
+        <item h="1" sd="0" x="27"/>
+        <item h="1" sd="0" x="28"/>
+        <item h="1" sd="0" x="29"/>
+        <item h="1" sd="0" x="30"/>
+        <item h="1" sd="0" x="31"/>
+        <item h="1" sd="0" x="32"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -18098,7 +18334,7 @@
   <rowFields count="1">
     <field x="8"/>
   </rowFields>
-  <rowItems count="20">
+  <rowItems count="15">
     <i>
       <x v="1"/>
     </i>
@@ -18140,21 +18376,6 @@
     </i>
     <i>
       <x v="26"/>
-    </i>
-    <i>
-      <x v="27"/>
-    </i>
-    <i>
-      <x v="28"/>
-    </i>
-    <i>
-      <x v="29"/>
-    </i>
-    <i>
-      <x v="30"/>
-    </i>
-    <i>
-      <x v="31"/>
     </i>
     <i t="grand">
       <x/>
@@ -18226,7 +18447,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31F76A91-6AEC-4974-BC1C-A747D32106C8}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Genre">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{31F76A91-6AEC-4974-BC1C-A747D32106C8}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="3" rowHeaderCaption="Genre">
   <location ref="A3:B17" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -19539,7 +19760,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A48E74F9-254F-4AC1-8014-A33B6EBF4F65}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Genre">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A48E74F9-254F-4AC1-8014-A33B6EBF4F65}" name="PivotTable11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="9" rowHeaderCaption="Genre">
   <location ref="A3:C17" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -20384,25 +20605,25 @@
         <i x="24" s="1"/>
         <i x="25" s="1"/>
         <i x="26" s="1"/>
-        <i x="27" s="1"/>
-        <i x="28" s="1"/>
-        <i x="29" s="1"/>
-        <i x="30" s="1"/>
-        <i x="31" s="1"/>
-        <i x="0" s="1" nd="1"/>
-        <i x="32" s="1" nd="1"/>
-        <i x="2" s="1" nd="1"/>
-        <i x="3" s="1" nd="1"/>
-        <i x="4" s="1" nd="1"/>
-        <i x="5" s="1" nd="1"/>
-        <i x="6" s="1" nd="1"/>
-        <i x="7" s="1" nd="1"/>
-        <i x="8" s="1" nd="1"/>
-        <i x="9" s="1" nd="1"/>
-        <i x="10" s="1" nd="1"/>
-        <i x="11" s="1" nd="1"/>
-        <i x="12" s="1" nd="1"/>
-        <i x="13" s="1" nd="1"/>
+        <i x="27"/>
+        <i x="28"/>
+        <i x="29"/>
+        <i x="30"/>
+        <i x="31"/>
+        <i x="0" nd="1"/>
+        <i x="32" nd="1"/>
+        <i x="2" nd="1"/>
+        <i x="3" nd="1"/>
+        <i x="4" nd="1"/>
+        <i x="5" nd="1"/>
+        <i x="6" nd="1"/>
+        <i x="7" nd="1"/>
+        <i x="8" nd="1"/>
+        <i x="9" nd="1"/>
+        <i x="10" nd="1"/>
+        <i x="11" nd="1"/>
+        <i x="12" nd="1"/>
+        <i x="13" nd="1"/>
       </items>
     </tabular>
   </data>
@@ -20786,22 +21007,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F275"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A2:F275"/>
+    <sheetView topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.81640625" customWidth="1"/>
-    <col min="2" max="2" width="24.54296875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.1796875" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" customWidth="1"/>
-    <col min="5" max="5" width="17.90625" customWidth="1"/>
-    <col min="6" max="6" width="29.36328125" customWidth="1"/>
-    <col min="7" max="7" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="2" max="2" width="24.5546875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" customWidth="1"/>
+    <col min="5" max="5" width="17.88671875" customWidth="1"/>
+    <col min="6" max="6" width="29.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>291</v>
       </c>
@@ -20821,7 +21042,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
@@ -20839,7 +21060,7 @@
         <v>42183197</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -20859,7 +21080,7 @@
         <v>283900254</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="15.45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
@@ -20879,7 +21100,7 @@
         <v>32007656</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="17.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
@@ -20899,7 +21120,7 @@
         <v>161610341</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
@@ -20919,7 +21140,7 @@
         <v>485424724</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>24</v>
       </c>
@@ -20939,7 +21160,7 @@
         <v>54262148</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
@@ -20959,7 +21180,7 @@
         <v>295851</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -20979,7 +21200,7 @@
         <v>7566363</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>27</v>
       </c>
@@ -20999,7 +21220,7 @@
         <v>14755189</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>28</v>
       </c>
@@ -21019,7 +21240,7 @@
         <v>10111144</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
@@ -21039,7 +21260,7 @@
         <v>47794214</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
@@ -21059,7 +21280,7 @@
         <v>404450426</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>31</v>
       </c>
@@ -21079,7 +21300,7 @@
         <v>4609153</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>32</v>
       </c>
@@ -21099,7 +21320,7 @@
         <v>106921374</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
@@ -21119,7 +21340,7 @@
         <v>94838225</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
@@ -21139,7 +21360,7 @@
         <v>13180524</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
@@ -21159,7 +21380,7 @@
         <v>94852354</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>36</v>
       </c>
@@ -21179,7 +21400,7 @@
         <v>2562155</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>37</v>
       </c>
@@ -21199,7 +21420,7 @@
         <v>71228678</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>38</v>
       </c>
@@ -21219,7 +21440,7 @@
         <v>95208344</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>39</v>
       </c>
@@ -21239,7 +21460,7 @@
         <v>42661516</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>40</v>
       </c>
@@ -21259,7 +21480,7 @@
         <v>57925202</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>41</v>
       </c>
@@ -21279,7 +21500,7 @@
         <v>215438985</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>42</v>
       </c>
@@ -21299,7 +21520,7 @@
         <v>89042541</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>43</v>
       </c>
@@ -21319,7 +21540,7 @@
         <v>158970411</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>44</v>
       </c>
@@ -21339,7 +21560,7 @@
         <v>14238144</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>45</v>
       </c>
@@ -21359,7 +21580,7 @@
         <v>108993148</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>46</v>
       </c>
@@ -21379,7 +21600,7 @@
         <v>95070168</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>47</v>
       </c>
@@ -21399,7 +21620,7 @@
         <v>20362201</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>48</v>
       </c>
@@ -21419,7 +21640,7 @@
         <v>7404372</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>49</v>
       </c>
@@ -21439,7 +21660,7 @@
         <v>180742479</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>50</v>
       </c>
@@ -21459,7 +21680,7 @@
         <v>148208901</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>51</v>
       </c>
@@ -21479,7 +21700,7 @@
         <v>104055039</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>52</v>
       </c>
@@ -21499,7 +21720,7 @@
         <v>136789252</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
@@ -21519,7 +21740,7 @@
         <v>67922002</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>54</v>
       </c>
@@ -21539,7 +21760,7 @@
         <v>44418589</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>55</v>
       </c>
@@ -21559,7 +21780,7 @@
         <v>54656124</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>56</v>
       </c>
@@ -21579,7 +21800,7 @@
         <v>7114869</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>57</v>
       </c>
@@ -21599,7 +21820,7 @@
         <v>295705112</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>58</v>
       </c>
@@ -21619,7 +21840,7 @@
         <v>125188122</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>59</v>
       </c>
@@ -21639,7 +21860,7 @@
         <v>25214223</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>60</v>
       </c>
@@ -21659,7 +21880,7 @@
         <v>161218928</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>61</v>
       </c>
@@ -21679,7 +21900,7 @@
         <v>7450434</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>62</v>
       </c>
@@ -21699,7 +21920,7 @@
         <v>25749730</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>63</v>
       </c>
@@ -21719,7 +21940,7 @@
         <v>35705805</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>64</v>
       </c>
@@ -21737,7 +21958,7 @@
         <v>337782</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>65</v>
       </c>
@@ -21757,7 +21978,7 @@
         <v>416073179</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>66</v>
       </c>
@@ -21777,7 +21998,7 @@
         <v>20700691</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>67</v>
       </c>
@@ -21797,7 +22018,7 @@
         <v>76758193</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>68</v>
       </c>
@@ -21817,7 +22038,7 @@
         <v>36980311</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>69</v>
       </c>
@@ -21833,7 +22054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>70</v>
       </c>
@@ -21853,7 +22074,7 @@
         <v>117745317</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>71</v>
       </c>
@@ -21873,7 +22094,7 @@
         <v>78682079</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>72</v>
       </c>
@@ -21893,7 +22114,7 @@
         <v>70269715</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>73</v>
       </c>
@@ -21913,7 +22134,7 @@
         <v>62480631</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>74</v>
       </c>
@@ -21933,7 +22154,7 @@
         <v>14797862</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>75</v>
       </c>
@@ -21953,7 +22174,7 @@
         <v>109691666</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>76</v>
       </c>
@@ -21973,7 +22194,7 @@
         <v>10537188</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>77</v>
       </c>
@@ -21993,7 +22214,7 @@
         <v>6089874</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>18</v>
       </c>
@@ -22013,7 +22234,7 @@
         <v>43756218</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>79</v>
       </c>
@@ -22033,7 +22254,7 @@
         <v>211506702</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>80</v>
       </c>
@@ -22053,7 +22274,7 @@
         <v>24650121</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>81</v>
       </c>
@@ -22073,7 +22294,7 @@
         <v>330754439</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>82</v>
       </c>
@@ -22093,7 +22314,7 @@
         <v>14338992</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>83</v>
       </c>
@@ -22113,7 +22334,7 @@
         <v>184521151</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>84</v>
       </c>
@@ -22133,7 +22354,7 @@
         <v>9909094</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>85</v>
       </c>
@@ -22153,7 +22374,7 @@
         <v>27789959</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
         <v>86</v>
       </c>
@@ -22173,7 +22394,7 @@
         <v>201959095</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>87</v>
       </c>
@@ -22193,7 +22414,7 @@
         <v>55189145</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
         <v>88</v>
       </c>
@@ -22213,7 +22434,7 @@
         <v>50624654</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>89</v>
       </c>
@@ -22233,7 +22454,7 @@
         <v>18325463</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
         <v>90</v>
       </c>
@@ -22253,7 +22474,7 @@
         <v>73793522</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>91</v>
       </c>
@@ -22273,7 +22494,7 @@
         <v>84537962</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
         <v>92</v>
       </c>
@@ -22293,7 +22514,7 @@
         <v>66966883</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>93</v>
       </c>
@@ -22313,7 +22534,7 @@
         <v>185481530</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
         <v>94</v>
       </c>
@@ -22333,7 +22554,7 @@
         <v>32298812</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>95</v>
       </c>
@@ -22353,7 +22574,7 @@
         <v>23803108</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
         <v>96</v>
       </c>
@@ -22373,7 +22594,7 @@
         <v>94203395</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>97</v>
       </c>
@@ -22393,7 +22614,7 @@
         <v>59743191</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
         <v>98</v>
       </c>
@@ -22413,7 +22634,7 @@
         <v>518148559</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>99</v>
       </c>
@@ -22433,7 +22654,7 @@
         <v>426967926</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>8</v>
       </c>
@@ -22453,7 +22674,7 @@
         <v>154090360</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>100</v>
       </c>
@@ -22473,7 +22694,7 @@
         <v>81547672</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>101</v>
       </c>
@@ -22493,7 +22714,7 @@
         <v>29895090</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>102</v>
       </c>
@@ -22513,7 +22734,7 @@
         <v>60944053</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>103</v>
       </c>
@@ -22533,7 +22754,7 @@
         <v>2194759</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>104</v>
       </c>
@@ -22553,7 +22774,7 @@
         <v>119218333</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
         <v>105</v>
       </c>
@@ -22573,7 +22794,7 @@
         <v>105775678</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>106</v>
       </c>
@@ -22593,7 +22814,7 @@
         <v>42379650</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
         <v>107</v>
       </c>
@@ -22613,7 +22834,7 @@
         <v>9254344</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>108</v>
       </c>
@@ -22633,7 +22854,7 @@
         <v>8812764</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
         <v>109</v>
       </c>
@@ -22653,7 +22874,7 @@
         <v>87392478</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>110</v>
       </c>
@@ -22673,7 +22894,7 @@
         <v>39816568</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
         <v>111</v>
       </c>
@@ -22693,7 +22914,7 @@
         <v>91340921</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>112</v>
       </c>
@@ -22713,7 +22934,7 @@
         <v>53881593</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
         <v>113</v>
       </c>
@@ -22733,7 +22954,7 @@
         <v>67910166</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>114</v>
       </c>
@@ -22753,7 +22974,7 @@
         <v>30416359</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
         <v>115</v>
       </c>
@@ -22773,7 +22994,7 @@
         <v>50886144</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>116</v>
       </c>
@@ -22793,7 +23014,7 @@
         <v>32585356</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
         <v>117</v>
       </c>
@@ -22813,7 +23034,7 @@
         <v>426246</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>118</v>
       </c>
@@ -22833,7 +23054,7 @@
         <v>70423706</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
         <v>119</v>
       </c>
@@ -22853,7 +23074,7 @@
         <v>155021748</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>120</v>
       </c>
@@ -22873,7 +23094,7 @@
         <v>129164207</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>121</v>
       </c>
@@ -22893,7 +23114,7 @@
         <v>29593641</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>122</v>
       </c>
@@ -22913,7 +23134,7 @@
         <v>629502</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>123</v>
       </c>
@@ -22933,7 +23154,7 @@
         <v>101161045</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>124</v>
       </c>
@@ -22953,7 +23174,7 @@
         <v>354488708</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>125</v>
       </c>
@@ -22973,7 +23194,7 @@
         <v>234069353</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>126</v>
       </c>
@@ -22993,7 +23214,7 @@
         <v>32198655</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
         <v>127</v>
       </c>
@@ -23013,7 +23234,7 @@
         <v>11740942</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>128</v>
       </c>
@@ -23033,7 +23254,7 @@
         <v>23801835</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
         <v>129</v>
       </c>
@@ -23053,7 +23274,7 @@
         <v>148619029</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>130</v>
       </c>
@@ -23073,7 +23294,7 @@
         <v>32064685</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
         <v>131</v>
       </c>
@@ -23093,7 +23314,7 @@
         <v>28716947</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>132</v>
       </c>
@@ -23113,7 +23334,7 @@
         <v>67096891</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="4" t="s">
         <v>133</v>
       </c>
@@ -23133,7 +23354,7 @@
         <v>6194870</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>134</v>
       </c>
@@ -23153,7 +23374,7 @@
         <v>86812798</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="4" t="s">
         <v>135</v>
       </c>
@@ -23173,7 +23394,7 @@
         <v>33500491</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>136</v>
       </c>
@@ -23193,7 +23414,7 @@
         <v>84088854</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="4" t="s">
         <v>137</v>
       </c>
@@ -23213,7 +23434,7 @@
         <v>25616292</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>138</v>
       </c>
@@ -23233,7 +23454,7 @@
         <v>117960425</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="4" t="s">
         <v>139</v>
       </c>
@@ -23253,7 +23474,7 @@
         <v>20162672</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>140</v>
       </c>
@@ -23273,7 +23494,7 @@
         <v>13519621</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="4" t="s">
         <v>141</v>
       </c>
@@ -23293,7 +23514,7 @@
         <v>177954661</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="4" t="s">
         <v>142</v>
       </c>
@@ -23313,7 +23534,7 @@
         <v>381557539</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="4" t="s">
         <v>143</v>
       </c>
@@ -23333,7 +23554,7 @@
         <v>14574087</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>144</v>
       </c>
@@ -23353,7 +23574,7 @@
         <v>54888236</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>145</v>
       </c>
@@ -23373,7 +23594,7 @@
         <v>22044113</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>146</v>
       </c>
@@ -23393,7 +23614,7 @@
         <v>12948025</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>147</v>
       </c>
@@ -23413,7 +23634,7 @@
         <v>105037235</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>148</v>
       </c>
@@ -23433,7 +23654,7 @@
         <v>78667428</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="4" t="s">
         <v>149</v>
       </c>
@@ -23453,7 +23674,7 @@
         <v>29712825</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="4" t="s">
         <v>150</v>
       </c>
@@ -23473,7 +23694,7 @@
         <v>48114115</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="4" t="s">
         <v>151</v>
       </c>
@@ -23493,7 +23714,7 @@
         <v>34634731</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="4" t="s">
         <v>152</v>
       </c>
@@ -23513,7 +23734,7 @@
         <v>5512647</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="4" t="s">
         <v>153</v>
       </c>
@@ -23533,7 +23754,7 @@
         <v>314140384</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="4" t="s">
         <v>154</v>
       </c>
@@ -23553,7 +23774,7 @@
         <v>544817142</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="4" t="s">
         <v>155</v>
       </c>
@@ -23573,7 +23794,7 @@
         <v>84078780</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="4" t="s">
         <v>156</v>
       </c>
@@ -23593,7 +23814,7 @@
         <v>74398864</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="4" t="s">
         <v>157</v>
       </c>
@@ -23613,7 +23834,7 @@
         <v>70801353</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="4" t="s">
         <v>158</v>
       </c>
@@ -23633,7 +23854,7 @@
         <v>68289913</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="4" t="s">
         <v>159</v>
       </c>
@@ -23653,7 +23874,7 @@
         <v>30737517</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="4" t="s">
         <v>160</v>
       </c>
@@ -23673,7 +23894,7 @@
         <v>108694869</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="4" t="s">
         <v>161</v>
       </c>
@@ -23693,7 +23914,7 @@
         <v>82267038</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="4" t="s">
         <v>162</v>
       </c>
@@ -23713,7 +23934,7 @@
         <v>64959548</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="4" t="s">
         <v>163</v>
       </c>
@@ -23733,7 +23954,7 @@
         <v>12985302</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="4" t="s">
         <v>164</v>
       </c>
@@ -23753,7 +23974,7 @@
         <v>100760721</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="4" t="s">
         <v>165</v>
       </c>
@@ -23773,7 +23994,7 @@
         <v>206110533</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="4" t="s">
         <v>166</v>
       </c>
@@ -23793,7 +24014,7 @@
         <v>119860589</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="4" t="s">
         <v>167</v>
       </c>
@@ -23813,7 +24034,7 @@
         <v>5637048</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="4" t="s">
         <v>168</v>
       </c>
@@ -23833,7 +24054,7 @@
         <v>8779196</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="4" t="s">
         <v>169</v>
       </c>
@@ -23853,7 +24074,7 @@
         <v>25202168</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="4" t="s">
         <v>170</v>
       </c>
@@ -23873,7 +24094,7 @@
         <v>379129960</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="4" t="s">
         <v>171</v>
       </c>
@@ -23893,7 +24114,7 @@
         <v>252955933</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="4" t="s">
         <v>172</v>
       </c>
@@ -23913,7 +24134,7 @@
         <v>53619462</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="4" t="s">
         <v>173</v>
       </c>
@@ -23933,7 +24154,7 @@
         <v>111010758</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="4" t="s">
         <v>174</v>
       </c>
@@ -23953,7 +24174,7 @@
         <v>58350234</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="4" t="s">
         <v>175</v>
       </c>
@@ -23973,7 +24194,7 @@
         <v>156074310</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="4" t="s">
         <v>176</v>
       </c>
@@ -23993,7 +24214,7 @@
         <v>267003525</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="4" t="s">
         <v>177</v>
       </c>
@@ -24013,7 +24234,7 @@
         <v>76646993</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="4" t="s">
         <v>179</v>
       </c>
@@ -24033,7 +24254,7 @@
         <v>68118371</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="4" t="s">
         <v>180</v>
       </c>
@@ -24053,7 +24274,7 @@
         <v>53550960</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="4" t="s">
         <v>181</v>
       </c>
@@ -24073,7 +24294,7 @@
         <v>166277038</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="4" t="s">
         <v>182</v>
       </c>
@@ -24093,7 +24314,7 @@
         <v>262771918</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="4" t="s">
         <v>183</v>
       </c>
@@ -24113,7 +24334,7 @@
         <v>19125841</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="4" t="s">
         <v>184</v>
       </c>
@@ -24133,7 +24354,7 @@
         <v>264247</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="4" t="s">
         <v>185</v>
       </c>
@@ -24153,7 +24374,7 @@
         <v>9295171</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="4" t="s">
         <v>186</v>
       </c>
@@ -24173,7 +24394,7 @@
         <v>110932022</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="4" t="s">
         <v>187</v>
       </c>
@@ -24193,7 +24414,7 @@
         <v>322979</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="4" t="s">
         <v>188</v>
       </c>
@@ -24213,7 +24434,7 @@
         <v>106308538</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="4" t="s">
         <v>189</v>
       </c>
@@ -24233,7 +24454,7 @@
         <v>133702498</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="4" t="s">
         <v>190</v>
       </c>
@@ -24253,7 +24474,7 @@
         <v>128039679</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="4" t="s">
         <v>191</v>
       </c>
@@ -24273,7 +24494,7 @@
         <v>49767744</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="4" t="s">
         <v>192</v>
       </c>
@@ -24293,7 +24514,7 @@
         <v>38174685</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="4" t="s">
         <v>193</v>
       </c>
@@ -24313,7 +24534,7 @@
         <v>75501997</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="4" t="s">
         <v>194</v>
       </c>
@@ -24333,7 +24554,7 @@
         <v>89443640</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="4" t="s">
         <v>195</v>
       </c>
@@ -24353,7 +24574,7 @@
         <v>35981010</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="4" t="s">
         <v>196</v>
       </c>
@@ -24373,7 +24594,7 @@
         <v>329336681</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="4" t="s">
         <v>197</v>
       </c>
@@ -24393,7 +24614,7 @@
         <v>184288829</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="4" t="s">
         <v>198</v>
       </c>
@@ -24413,7 +24634,7 @@
         <v>134246932</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="4" t="s">
         <v>199</v>
       </c>
@@ -24433,7 +24654,7 @@
         <v>16961607</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="4" t="s">
         <v>200</v>
       </c>
@@ -24453,7 +24674,7 @@
         <v>1563976</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="4" t="s">
         <v>201</v>
       </c>
@@ -24473,7 +24694,7 @@
         <v>23064</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="4" t="s">
         <v>202</v>
       </c>
@@ -24493,7 +24714,7 @@
         <v>43361416</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="4" t="s">
         <v>203</v>
       </c>
@@ -24513,7 +24734,7 @@
         <v>34509545</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="4" t="s">
         <v>204</v>
       </c>
@@ -24533,7 +24754,7 @@
         <v>154927105</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="4" t="s">
         <v>205</v>
       </c>
@@ -24553,7 +24774,7 @@
         <v>116316457</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="4" t="s">
         <v>206</v>
       </c>
@@ -24573,7 +24794,7 @@
         <v>55503929</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="4" t="s">
         <v>207</v>
       </c>
@@ -24593,7 +24814,7 @@
         <v>34917330</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="4" t="s">
         <v>208</v>
       </c>
@@ -24613,7 +24834,7 @@
         <v>357063499</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="4" t="s">
         <v>209</v>
       </c>
@@ -24633,7 +24854,7 @@
         <v>86264</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="4" t="s">
         <v>210</v>
       </c>
@@ -24653,7 +24874,7 @@
         <v>67258772</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="4" t="s">
         <v>211</v>
       </c>
@@ -24673,7 +24894,7 @@
         <v>20751600</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="4" t="s">
         <v>212</v>
       </c>
@@ -24693,7 +24914,7 @@
         <v>96971361</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="4" t="s">
         <v>213</v>
       </c>
@@ -24713,7 +24934,7 @@
         <v>443408255</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="4" t="s">
         <v>214</v>
       </c>
@@ -24733,7 +24954,7 @@
         <v>67473105</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="4" t="s">
         <v>215</v>
       </c>
@@ -24753,7 +24974,7 @@
         <v>45302137</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="4" t="s">
         <v>216</v>
       </c>
@@ -24773,7 +24994,7 @@
         <v>51988</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="4" t="s">
         <v>217</v>
       </c>
@@ -24793,7 +25014,7 @@
         <v>27461121</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="4" t="s">
         <v>218</v>
       </c>
@@ -24813,7 +25034,7 @@
         <v>63781920</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="4" t="s">
         <v>219</v>
       </c>
@@ -24833,7 +25054,7 @@
         <v>214388548</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="4" t="s">
         <v>220</v>
       </c>
@@ -24853,7 +25074,7 @@
         <v>183619259</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="4" t="s">
         <v>221</v>
       </c>
@@ -24873,7 +25094,7 @@
         <v>106270797</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="4" t="s">
         <v>222</v>
       </c>
@@ -24893,7 +25114,7 @@
         <v>58574607</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="4" t="s">
         <v>223</v>
       </c>
@@ -24913,7 +25134,7 @@
         <v>22741603</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="4" t="s">
         <v>224</v>
       </c>
@@ -24933,7 +25154,7 @@
         <v>16401551</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="4" t="s">
         <v>225</v>
       </c>
@@ -24953,7 +25174,7 @@
         <v>2984</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="4" t="s">
         <v>226</v>
       </c>
@@ -24973,7 +25194,7 @@
         <v>10768946</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="4" t="s">
         <v>227</v>
       </c>
@@ -24993,7 +25214,7 @@
         <v>256263359</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="4" t="s">
         <v>228</v>
       </c>
@@ -25013,7 +25234,7 @@
         <v>203522177</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="4" t="s">
         <v>229</v>
       </c>
@@ -25033,7 +25254,7 @@
         <v>28375869</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="4" t="s">
         <v>230</v>
       </c>
@@ -25053,7 +25274,7 @@
         <v>180404976</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="4" t="s">
         <v>231</v>
       </c>
@@ -25073,7 +25294,7 @@
         <v>19452402</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="4" t="s">
         <v>232</v>
       </c>
@@ -25093,7 +25314,7 @@
         <v>90848019</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="4" t="s">
         <v>233</v>
       </c>
@@ -25113,7 +25334,7 @@
         <v>94189503</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="4" t="s">
         <v>234</v>
       </c>
@@ -25133,7 +25354,7 @@
         <v>84762149</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="4" t="s">
         <v>235</v>
       </c>
@@ -25153,7 +25374,7 @@
         <v>20325733</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="4" t="s">
         <v>236</v>
       </c>
@@ -25173,7 +25394,7 @@
         <v>77372445</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="4" t="s">
         <v>237</v>
       </c>
@@ -25193,7 +25414,7 @@
         <v>30675725</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="4" t="s">
         <v>238</v>
       </c>
@@ -25213,7 +25434,7 @@
         <v>660081224</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="4" t="s">
         <v>239</v>
       </c>
@@ -25233,7 +25454,7 @@
         <v>251292441</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="4" t="s">
         <v>240</v>
       </c>
@@ -25253,7 +25474,7 @@
         <v>13165822</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="4" t="s">
         <v>241</v>
       </c>
@@ -25273,7 +25494,7 @@
         <v>54914942</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A225" s="4" t="s">
         <v>242</v>
       </c>
@@ -25293,7 +25514,7 @@
         <v>37363513</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A226" s="4" t="s">
         <v>243</v>
       </c>
@@ -25313,7 +25534,7 @@
         <v>200354959</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>244</v>
       </c>
@@ -25333,7 +25554,7 @@
         <v>192122330</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="4" t="s">
         <v>245</v>
       </c>
@@ -25353,7 +25574,7 @@
         <v>243434130</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="4" t="s">
         <v>246</v>
       </c>
@@ -25373,7 +25594,7 @@
         <v>424084233</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="4" t="s">
         <v>247</v>
       </c>
@@ -25393,7 +25614,7 @@
         <v>278395641</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="4" t="s">
         <v>248</v>
       </c>
@@ -25413,7 +25634,7 @@
         <v>92597388</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="4" t="s">
         <v>249</v>
       </c>
@@ -25433,7 +25654,7 @@
         <v>93614037</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="4" t="s">
         <v>250</v>
       </c>
@@ -25453,7 +25674,7 @@
         <v>3374251</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="4" t="s">
         <v>251</v>
       </c>
@@ -25473,7 +25694,7 @@
         <v>213962184</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="4" t="s">
         <v>252</v>
       </c>
@@ -25493,7 +25714,7 @@
         <v>5367415</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="4" t="s">
         <v>253</v>
       </c>
@@ -25513,7 +25734,7 @@
         <v>414997174</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="4" t="s">
         <v>254</v>
       </c>
@@ -25533,7 +25754,7 @@
         <v>31787136</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="4" t="s">
         <v>255</v>
       </c>
@@ -25553,7 +25774,7 @@
         <v>86249969</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="4" t="s">
         <v>256</v>
       </c>
@@ -25573,7 +25794,7 @@
         <v>44955015</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="4" t="s">
         <v>257</v>
       </c>
@@ -25593,7 +25814,7 @@
         <v>52807594</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="4" t="s">
         <v>258</v>
       </c>
@@ -25613,7 +25834,7 @@
         <v>268013076</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="4" t="s">
         <v>259</v>
       </c>
@@ -25633,7 +25854,7 @@
         <v>18346024</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="4" t="s">
         <v>260</v>
       </c>
@@ -25653,7 +25874,7 @@
         <v>37607865</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="4" t="s">
         <v>261</v>
       </c>
@@ -25673,7 +25894,7 @@
         <v>249089809</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="4" t="s">
         <v>262</v>
       </c>
@@ -25693,7 +25914,7 @@
         <v>61040349</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="4" t="s">
         <v>263</v>
       </c>
@@ -25713,7 +25934,7 @@
         <v>343771168</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="4" t="s">
         <v>264</v>
       </c>
@@ -25733,7 +25954,7 @@
         <v>55961409</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="4" t="s">
         <v>265</v>
       </c>
@@ -25753,7 +25974,7 @@
         <v>69055550</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="4" t="s">
         <v>266</v>
       </c>
@@ -25773,7 +25994,7 @@
         <v>229249222</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="4" t="s">
         <v>267</v>
       </c>
@@ -25793,7 +26014,7 @@
         <v>130894237</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="4" t="s">
         <v>268</v>
       </c>
@@ -25813,7 +26034,7 @@
         <v>12429583</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="4" t="s">
         <v>269</v>
       </c>
@@ -25833,7 +26054,7 @@
         <v>44480275</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="4" t="s">
         <v>3</v>
       </c>
@@ -25853,7 +26074,7 @@
         <v>201151353</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="4" t="s">
         <v>270</v>
       </c>
@@ -25873,7 +26094,7 @@
         <v>16432322</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="4" t="s">
         <v>271</v>
       </c>
@@ -25893,7 +26114,7 @@
         <v>459005868</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="4" t="s">
         <v>272</v>
       </c>
@@ -25913,7 +26134,7 @@
         <v>93436322</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="4" t="s">
         <v>273</v>
       </c>
@@ -25933,7 +26154,7 @@
         <v>356461711</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="4" t="s">
         <v>274</v>
       </c>
@@ -25953,7 +26174,7 @@
         <v>180202163</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="4" t="s">
         <v>275</v>
       </c>
@@ -25973,7 +26194,7 @@
         <v>72313754</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="4" t="s">
         <v>276</v>
       </c>
@@ -25993,7 +26214,7 @@
         <v>123087120</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="4" t="s">
         <v>277</v>
       </c>
@@ -26013,7 +26234,7 @@
         <v>936662225</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="4" t="s">
         <v>278</v>
       </c>
@@ -26033,7 +26254,7 @@
         <v>27569558</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="4" t="s">
         <v>279</v>
       </c>
@@ -26053,7 +26274,7 @@
         <v>341268248</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="4" t="s">
         <v>7</v>
       </c>
@@ -26073,7 +26294,7 @@
         <v>364001123</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="4" t="s">
         <v>280</v>
       </c>
@@ -26093,7 +26314,7 @@
         <v>7895708</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="4" t="s">
         <v>281</v>
       </c>
@@ -26113,7 +26334,7 @@
         <v>408084349</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="4" t="s">
         <v>282</v>
       </c>
@@ -26133,7 +26354,7 @@
         <v>77042381</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="4" t="s">
         <v>283</v>
       </c>
@@ -26153,7 +26374,7 @@
         <v>486295561</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="4" t="s">
         <v>284</v>
       </c>
@@ -26173,7 +26394,7 @@
         <v>55483770</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="4" t="s">
         <v>285</v>
       </c>
@@ -26193,7 +26414,7 @@
         <v>76233151</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="4" t="s">
         <v>286</v>
       </c>
@@ -26213,7 +26434,7 @@
         <v>12545979</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="4" t="s">
         <v>287</v>
       </c>
@@ -26233,7 +26454,7 @@
         <v>8874389</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="4" t="s">
         <v>288</v>
       </c>
@@ -26253,7 +26474,7 @@
         <v>232532923</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="4" t="s">
         <v>289</v>
       </c>
@@ -26273,7 +26494,7 @@
         <v>246082029</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="10" t="s">
         <v>290</v>
       </c>
@@ -26304,248 +26525,193 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5AF99E8-4F24-412F-B577-F2151DB94213}">
-  <dimension ref="A3:C23"/>
+  <dimension ref="A3:C18"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="R38" sqref="R38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>298</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4" s="18">
         <v>18564613</v>
       </c>
-      <c r="C4" s="16">
+      <c r="C4" s="18">
         <v>42183197</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>299</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="18">
         <v>1043700843</v>
       </c>
-      <c r="C5" s="16">
+      <c r="C5" s="18">
         <v>1721727586</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="B6" s="16">
+      <c r="B6" s="18">
         <v>1098929717</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="18">
         <v>1711675892</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>301</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="18">
         <v>881246784</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="18">
         <v>1296291781</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>302</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="18">
         <v>1159269061</v>
       </c>
-      <c r="C8" s="16">
+      <c r="C8" s="18">
         <v>1680599676</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>303</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="18">
         <v>1564114393</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="18">
         <v>2171244827</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>304</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="18">
         <v>1157899879</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="18">
         <v>1570219160</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>305</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="18">
         <v>970646842</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="18">
         <v>1273982639</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>306</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="18">
         <v>1427356974</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="18">
         <v>1834744763</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="18">
         <v>1436787754</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="18">
         <v>1757479739</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>308</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="18">
         <v>968276109</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="18">
         <v>1135356255</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>309</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="18">
         <v>1215142753</v>
       </c>
-      <c r="C15" s="16">
+      <c r="C15" s="18">
         <v>1359908617</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="18">
         <v>1518975880</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="18">
         <v>1622535159</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="18">
         <v>1103207068</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="18">
         <v>1172578942</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="B18" s="16">
-        <v>1452972057</v>
-      </c>
-      <c r="C18" s="16">
-        <v>1537669134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="B19" s="16">
-        <v>1821352070</v>
-      </c>
-      <c r="C19" s="16">
-        <v>1887863558</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="B20" s="16">
-        <v>1514179473</v>
-      </c>
-      <c r="C20" s="16">
-        <v>1560791318</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>315</v>
-      </c>
-      <c r="B21" s="16">
-        <v>2495662696</v>
-      </c>
-      <c r="C21" s="16">
-        <v>2495662696</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="B22" s="16">
-        <v>2873393105</v>
-      </c>
-      <c r="C22" s="16">
-        <v>2873393105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B23" s="16">
-        <v>25721678071</v>
-      </c>
-      <c r="C23" s="16">
-        <v>30705908044</v>
+      <c r="B18" s="18">
+        <v>15564118670</v>
+      </c>
+      <c r="C18" s="18">
+        <v>20350528233</v>
       </c>
     </row>
   </sheetData>
@@ -26562,129 +26728,129 @@
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="18">
         <v>3163157782</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="18">
         <v>13738893008</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="18">
         <v>52353636</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="18">
         <v>3774576909</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="18">
         <v>103456466</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="18">
         <v>180685619</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="18">
         <v>2274007519</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="18">
         <v>41385129</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="18">
         <v>338391715</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="18">
         <v>602687134</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="18">
         <v>1157597595</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="18">
         <v>294258767</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B16">
+        <v>314</v>
+      </c>
+      <c r="B16" s="18">
         <v>226792</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="18">
         <v>25721678071</v>
       </c>
     </row>
@@ -26699,24 +26865,24 @@
   <dimension ref="A3:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="AB32" sqref="AB32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>1</v>
       </c>
@@ -26724,7 +26890,7 @@
         <v>4895400283</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>6</v>
       </c>
@@ -26732,7 +26898,7 @@
         <v>314000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>11</v>
       </c>
@@ -26740,7 +26906,7 @@
         <v>10045908017</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>16</v>
       </c>
@@ -26748,7 +26914,7 @@
         <v>10210797546</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>12</v>
       </c>
@@ -26756,15 +26922,15 @@
         <v>550693612</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B9">
         <v>18564613</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>297</v>
       </c>
@@ -26783,178 +26949,178 @@
   <dimension ref="A3:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.6328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="C3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="18">
         <v>3163157782</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="18">
         <v>3507162231</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="18">
         <v>13738893008</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="18">
         <v>15863009937</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="18">
         <v>52353636</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="18">
         <v>76758193</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="18">
         <v>3774576909</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="18">
         <v>4961807970</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="18">
         <v>103456466</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="18">
         <v>114821678</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="18">
         <v>180685619</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="18">
         <v>203488418</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="18">
         <v>2274007519</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="18">
         <v>2753749590</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="18">
         <v>41385129</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="18">
         <v>49165227</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="18">
         <v>338391715</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="18">
         <v>414011101</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="18">
         <v>602687134</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="18">
         <v>726449265</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="18">
         <v>1157597595</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="18">
         <v>1650201771</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="18">
         <v>294258767</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="18">
         <v>384944881</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>319</v>
-      </c>
-      <c r="B16">
+        <v>314</v>
+      </c>
+      <c r="B16" s="18">
         <v>226792</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="18">
         <v>337782</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
         <v>297</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="18">
         <v>25721678071</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="18">
         <v>30705908044</v>
       </c>
     </row>
@@ -26966,20 +27132,1321 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27187931-61C1-43C6-9F8D-E31474163ED4}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:Y48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="83" zoomScaleNormal="83" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB24" sqref="AB24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A1" s="17"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
+      <c r="Y1" s="17"/>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
+      <c r="P2" s="17"/>
+      <c r="Q2" s="17"/>
+      <c r="R2" s="17"/>
+      <c r="S2" s="17"/>
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="17"/>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
+      <c r="M3" s="17"/>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="17"/>
+      <c r="U3" s="17"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
+      <c r="X3" s="17"/>
+      <c r="Y3" s="17"/>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
+      <c r="V4" s="17"/>
+      <c r="W4" s="17"/>
+      <c r="X4" s="17"/>
+      <c r="Y4" s="17"/>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
+      <c r="V5" s="17"/>
+      <c r="W5" s="17"/>
+      <c r="X5" s="17"/>
+      <c r="Y5" s="17"/>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="17"/>
+      <c r="M7" s="17"/>
+      <c r="N7" s="17"/>
+      <c r="O7" s="17"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="17"/>
+      <c r="M8" s="17"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
+      <c r="T8" s="17"/>
+      <c r="U8" s="17"/>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+      <c r="X8" s="17"/>
+      <c r="Y8" s="17"/>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
+      <c r="P9" s="17"/>
+      <c r="Q9" s="17"/>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
+      <c r="T9" s="17"/>
+      <c r="U9" s="17"/>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+      <c r="X9" s="17"/>
+      <c r="Y9" s="17"/>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
+      <c r="T10" s="17"/>
+      <c r="U10" s="17"/>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+      <c r="X10" s="17"/>
+      <c r="Y10" s="17"/>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="17"/>
+      <c r="U11" s="17"/>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+      <c r="X11" s="17"/>
+      <c r="Y11" s="17"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
+      <c r="U12" s="17"/>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+      <c r="X12" s="17"/>
+      <c r="Y12" s="17"/>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="17"/>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
+      <c r="T13" s="17"/>
+      <c r="U13" s="17"/>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+      <c r="X13" s="17"/>
+      <c r="Y13" s="17"/>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" s="17"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="17"/>
+      <c r="U14" s="17"/>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+      <c r="X14" s="17"/>
+      <c r="Y14" s="17"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="17"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="17"/>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="17"/>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+      <c r="X15" s="17"/>
+      <c r="Y15" s="17"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
+      <c r="L16" s="17"/>
+      <c r="M16" s="17"/>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="17"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="17"/>
+      <c r="U16" s="17"/>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+      <c r="X16" s="17"/>
+      <c r="Y16" s="17"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+      <c r="X17" s="17"/>
+      <c r="Y17" s="17"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" s="17"/>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
+      <c r="T18" s="17"/>
+      <c r="U18" s="17"/>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+      <c r="X18" s="17"/>
+      <c r="Y18" s="17"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="17"/>
+      <c r="U19" s="17"/>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="17"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+      <c r="X20" s="17"/>
+      <c r="Y20" s="17"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="17"/>
+      <c r="K21" s="17"/>
+      <c r="L21" s="17"/>
+      <c r="M21" s="17"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="17"/>
+      <c r="U21" s="17"/>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+      <c r="X21" s="17"/>
+      <c r="Y21" s="17"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="17"/>
+      <c r="U22" s="17"/>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+      <c r="X22" s="17"/>
+      <c r="Y22" s="17"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="17"/>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="17"/>
+      <c r="U23" s="17"/>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+      <c r="X23" s="17"/>
+      <c r="Y23" s="17"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="17"/>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+      <c r="X24" s="17"/>
+      <c r="Y24" s="17"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="17"/>
+      <c r="U25" s="17"/>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+      <c r="X25" s="17"/>
+      <c r="Y25" s="17"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="17"/>
+      <c r="K26" s="17"/>
+      <c r="L26" s="17"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="17"/>
+      <c r="U26" s="17"/>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
+      <c r="X26" s="17"/>
+      <c r="Y26" s="17"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="17"/>
+      <c r="L27" s="17"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="17"/>
+      <c r="U27" s="17"/>
+      <c r="V27" s="17"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="17"/>
+      <c r="Y27" s="17"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17"/>
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17"/>
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="17"/>
+      <c r="U30" s="17"/>
+      <c r="V30" s="17"/>
+      <c r="W30" s="17"/>
+      <c r="X30" s="17"/>
+      <c r="Y30" s="17"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
+      <c r="V31" s="17"/>
+      <c r="W31" s="17"/>
+      <c r="X31" s="17"/>
+      <c r="Y31" s="17"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+      <c r="V32" s="17"/>
+      <c r="W32" s="17"/>
+      <c r="X32" s="17"/>
+      <c r="Y32" s="17"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+      <c r="V33" s="17"/>
+      <c r="W33" s="17"/>
+      <c r="X33" s="17"/>
+      <c r="Y33" s="17"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+      <c r="V34" s="17"/>
+      <c r="W34" s="17"/>
+      <c r="X34" s="17"/>
+      <c r="Y34" s="17"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="17"/>
+      <c r="U35" s="17"/>
+      <c r="V35" s="17"/>
+      <c r="W35" s="17"/>
+      <c r="X35" s="17"/>
+      <c r="Y35" s="17"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+      <c r="V36" s="17"/>
+      <c r="W36" s="17"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="17"/>
+      <c r="U37" s="17"/>
+      <c r="V37" s="17"/>
+      <c r="W37" s="17"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="17"/>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17"/>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17"/>
+      <c r="Y38" s="17"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="17"/>
+      <c r="U39" s="17"/>
+      <c r="V39" s="17"/>
+      <c r="W39" s="17"/>
+      <c r="X39" s="17"/>
+      <c r="Y39" s="17"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="17"/>
+      <c r="U40" s="17"/>
+      <c r="V40" s="17"/>
+      <c r="W40" s="17"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="17"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="17"/>
+      <c r="U42" s="17"/>
+      <c r="V42" s="17"/>
+      <c r="W42" s="17"/>
+      <c r="X42" s="17"/>
+      <c r="Y42" s="17"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+      <c r="O44" s="17"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="17"/>
+      <c r="U44" s="17"/>
+      <c r="V44" s="17"/>
+      <c r="W44" s="17"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+      <c r="N45" s="17"/>
+      <c r="O45" s="17"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="17"/>
+      <c r="U45" s="17"/>
+      <c r="V45" s="17"/>
+      <c r="W45" s="17"/>
+      <c r="X45" s="17"/>
+      <c r="Y45" s="17"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+      <c r="N46" s="17"/>
+      <c r="O46" s="17"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="17"/>
+      <c r="U46" s="17"/>
+      <c r="V46" s="17"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+      <c r="N47" s="17"/>
+      <c r="O47" s="17"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="17"/>
+      <c r="U47" s="17"/>
+      <c r="V47" s="17"/>
+      <c r="W47" s="17"/>
+      <c r="X47" s="17"/>
+      <c r="Y47" s="17"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="17"/>
+      <c r="M48" s="17"/>
+      <c r="N48" s="17"/>
+      <c r="O48" s="17"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="17"/>
+      <c r="U48" s="17"/>
+      <c r="V48" s="17"/>
+      <c r="W48" s="17"/>
+      <c r="X48" s="17"/>
+      <c r="Y48" s="17"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
       <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
+        <x14:slicer r:id="rId3"/>
       </x14:slicerList>
     </ext>
   </extLst>
